--- a/Sales Dashboard Challenge.xlsx
+++ b/Sales Dashboard Challenge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrgen\Desktop\Data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA68D3D3-466C-4DBC-B9E7-E5315C6689D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709EC511-441D-44F4-8F1D-3D3139BCAC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1770" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="61">
   <si>
     <t>DataFrenchy Excel Challenge #1 (8/30/2024)</t>
   </si>
@@ -233,6 +233,12 @@
   <si>
     <t>Average Expenses</t>
   </si>
+  <si>
+    <t>Customer Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit </t>
+  </si>
 </sst>
 </file>
 
@@ -306,6 +312,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,6 +363,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -475,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -540,6 +548,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,13 +562,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="566">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -720,6 +730,1749 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2B2F42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1052,6 +2805,1095 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2B2F42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -1235,6 +4077,9 @@
       <numFmt numFmtId="165" formatCode="&quot;$&quot;\ 0.0,,\ &quot;M&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1276,14 +4121,14 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="5" xr9:uid="{CF89E5AD-E964-4B5C-AA4C-DFAE40AEFCDC}">
-      <tableStyleElement type="wholeTable" dxfId="102"/>
-      <tableStyleElement type="headerRow" dxfId="101"/>
+      <tableStyleElement type="wholeTable" dxfId="565"/>
+      <tableStyleElement type="headerRow" dxfId="564"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF2B2F42"/>
       <color rgb="FFFF9933"/>
-      <color rgb="FF2B2F42"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2803,6 +5648,372 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA4D002-4442-D1A0-FC3B-AF89E6452854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9677400" y="487680"/>
+          <a:ext cx="3916680" cy="3916680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32D2EF1-5B45-0268-E811-A153ED672180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9677400" y="487680"/>
+          <a:ext cx="3916680" cy="3916680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240908E1-C4E4-0779-AF99-136C30B8BE89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9677400" y="487680"/>
+          <a:ext cx="3916680" cy="3916680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1482A8AF-B85D-773F-426C-D94283D1B7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9677400" y="487680"/>
+          <a:ext cx="3916680" cy="3916680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E161C2E8-D9DE-B228-8AF1-E5CDA5E63A3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9677400" y="487680"/>
+          <a:ext cx="3916680" cy="3916680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F987CF39-C4FE-0194-4463-0F1E6B24194A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9677400" y="487680"/>
+          <a:ext cx="3916680" cy="3916680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2810,14 +6021,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>192404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1062990</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>74294</xdr:rowOff>
     </xdr:to>
@@ -2854,8 +6065,8 @@
       <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
@@ -2873,7 +6084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2453640" y="116205"/>
-          <a:ext cx="10328909" cy="758190"/>
+          <a:ext cx="10605135" cy="758190"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3339,19 +6550,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>116206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>55246</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Region">
@@ -3374,7 +6585,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3384,8 +6595,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7208693" y="1536297"/>
-              <a:ext cx="1870883" cy="1310986"/>
+              <a:off x="7850505" y="1544956"/>
+              <a:ext cx="1874520" cy="1310640"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3454,19 +6665,19 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>1076326</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="21" name="Product Category">
@@ -3489,7 +6700,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3499,8 +6710,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9794990" y="1534391"/>
-              <a:ext cx="1839018" cy="1309081"/>
+              <a:off x="10441305" y="1543050"/>
+              <a:ext cx="1836421" cy="1316355"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3532,14 +6743,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:colOff>1028699</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -3556,7 +6767,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515224" y="1062990"/>
+          <a:off x="8248649" y="1062990"/>
           <a:ext cx="4067175" cy="356235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16300,6 +19511,835 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{268067C4-E0AF-4DD7-ACCC-52087B529F95}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L18:M23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="366">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Customer_Count" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4A34D859-C274-4653-8F9F-287B5C6FF339}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="T3:V16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -17181,7 +21221,65 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3ED251B9-0680-4852-A9AC-0233760331FD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Category">
+  <location ref="L3:M8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average Marketing Spend" fld="3" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C633564F-8221-4FEA-BCB7-F2B178E4487B}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P3:R24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -17695,836 +21793,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{268067C4-E0AF-4DD7-ACCC-52087B529F95}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L18:M23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="366">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item sd="0" x="3"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item sd="0" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="5"/>
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Customer_Count" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A87E1433-1DD4-4931-BE26-6E8F08D5EFB9}" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P33:S34" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="11">
@@ -19340,7 +22609,7 @@
     <dataField name="Sum of Costs" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="100">
+    <format dxfId="562">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19349,7 +22618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="561">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19358,7 +22627,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="560">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19367,7 +22636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="559">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19389,8 +22658,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B3113AD-711E-4EEF-BA56-0BAEFE987D97}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B3113AD-711E-4EEF-BA56-0BAEFE987D97}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Date">
   <location ref="L31:M397" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="descending">
@@ -21294,65 +24563,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Customer_Count" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3ED251B9-0680-4852-A9AC-0233760331FD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Category">
-  <location ref="L3:M8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average Marketing Spend" fld="3" subtotal="average" baseField="6" baseItem="0" numFmtId="164"/>
+    <dataField name="Customer Count" fld="4" baseField="0" baseItem="267"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -22176,8 +25387,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Profit" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Profit" fld="7" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="563">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
     <filter fld="0" type="count" evalOrder="-1" id="1" iMeasureFld="0">
@@ -22201,7 +25417,7 @@
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C88F595F-08B0-4004-A431-FEF47F3CC540}" name="PivotTable11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Region/Category">
-  <location ref="C8:E29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="C8:F29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0">
       <items count="366">
@@ -22595,7 +25811,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
@@ -22689,23 +25905,27 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField name="Average Revenue" fld="1" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
     <dataField name="Average Expenses" fld="2" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
+    <dataField name="Profit " fld="7" baseField="5" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="24">
-    <format dxfId="96">
+  <formats count="26">
+    <format dxfId="558">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="557">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -22715,10 +25935,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="556">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="555">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -22728,10 +25948,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="554">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="553">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -22741,7 +25961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="552">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22750,7 +25970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="551">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22759,7 +25979,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="550">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22768,7 +25988,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="549">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22777,7 +25997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="548">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22786,7 +26006,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="547">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22795,7 +26015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="546">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22804,7 +26024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="545">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -22813,13 +26033,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="544">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="543">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="542">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
@@ -22829,7 +26049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="541">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
@@ -22839,7 +26059,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="540">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
@@ -22849,7 +26069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="539">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
@@ -22859,7 +26079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="538">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
@@ -22869,7 +26089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="537">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
@@ -22879,7 +26099,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="536">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
@@ -22889,13 +26109,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="535">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1" selected="0">
             <x v="3"/>
           </reference>
           <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="306">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="305">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
         </references>
       </pivotArea>
     </format>
@@ -23169,7 +26407,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="C25" sqref="C25:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -23198,75 +26436,75 @@
     <row r="2" spans="1:16" ht="13.8">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="13.8">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="13.8">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="13.8">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="13.8">
@@ -23290,13 +26528,13 @@
     <row r="7" spans="1:16" ht="13.8">
       <c r="A7" s="1"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -23328,15 +26566,15 @@
     <row r="9" spans="1:16" ht="13.8">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -23366,17 +26604,17 @@
     <row r="11" spans="1:16" ht="13.8">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -23404,18 +26642,18 @@
     <row r="13" spans="1:16" ht="13.8">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -23442,15 +26680,15 @@
     <row r="15" spans="1:16" ht="13.8">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -23480,15 +26718,15 @@
     <row r="17" spans="1:16" ht="13.8">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -23518,20 +26756,20 @@
     <row r="19" spans="1:16" ht="13.8">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="1"/>
       <c r="P19" s="7"/>
     </row>
@@ -23556,19 +26794,19 @@
     <row r="21" spans="1:16" ht="13.8">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="7"/>
@@ -23576,17 +26814,17 @@
     <row r="22" spans="1:16" ht="13.8">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="7"/>
@@ -23594,17 +26832,17 @@
     <row r="23" spans="1:16" ht="13.8">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="7"/>
@@ -23630,19 +26868,19 @@
     <row r="25" spans="1:16" ht="13.8">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="7"/>
@@ -23650,17 +26888,17 @@
     <row r="26" spans="1:16" ht="13.8">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="7"/>
@@ -23668,17 +26906,17 @@
     <row r="27" spans="1:16" ht="13.8">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="7"/>
@@ -23800,20 +27038,20 @@
     <row r="34" spans="1:16" ht="13.8">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
       <c r="O34" s="1"/>
       <c r="P34" s="7"/>
     </row>
@@ -23924,7 +27162,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D702" sqref="D702"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -46972,8 +50210,8 @@
   </sheetPr>
   <dimension ref="A1:V397"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -46987,15 +50225,15 @@
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="43" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="44" max="52" width="8.109375" bestFit="1" customWidth="1"/>
@@ -47185,10 +50423,10 @@
       <c r="T4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="48">
         <v>4079129</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="48">
         <v>2482680</v>
       </c>
     </row>
@@ -47240,10 +50478,10 @@
       <c r="T5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="48">
         <v>3781580</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="48">
         <v>2041696</v>
       </c>
     </row>
@@ -47295,10 +50533,10 @@
       <c r="T6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="48">
         <v>4185796</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="48">
         <v>2456731</v>
       </c>
     </row>
@@ -47350,10 +50588,10 @@
       <c r="T7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="48">
         <v>3602489</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="48">
         <v>2497971</v>
       </c>
     </row>
@@ -47405,10 +50643,10 @@
       <c r="T8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="48">
         <v>4161619</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="48">
         <v>2428034</v>
       </c>
     </row>
@@ -47454,10 +50692,10 @@
       <c r="T9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="48">
         <v>4100839</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="48">
         <v>2321034</v>
       </c>
     </row>
@@ -47509,10 +50747,10 @@
       <c r="T10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="48">
         <v>4280387</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="48">
         <v>2463236</v>
       </c>
     </row>
@@ -47564,10 +50802,10 @@
       <c r="T11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="48">
         <v>3879623</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="48">
         <v>2492965</v>
       </c>
     </row>
@@ -47619,10 +50857,10 @@
       <c r="T12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="48">
         <v>3797197</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="48">
         <v>2550277</v>
       </c>
     </row>
@@ -47674,10 +50912,10 @@
       <c r="T13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="48">
         <v>3961692</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="48">
         <v>2441584</v>
       </c>
     </row>
@@ -47729,10 +50967,10 @@
       <c r="T14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="48">
         <v>4193881</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="48">
         <v>2579822</v>
       </c>
     </row>
@@ -47784,10 +51022,10 @@
       <c r="T15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="48">
         <v>4059040</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="48">
         <v>2565131</v>
       </c>
     </row>
@@ -47833,10 +51071,10 @@
       <c r="T16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="48">
         <v>48083272</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="48">
         <v>29321161</v>
       </c>
     </row>
@@ -48328,7 +51566,7 @@
       <c r="L28" s="26">
         <v>44517</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="41">
         <v>151028</v>
       </c>
     </row>
@@ -48430,10 +51668,10 @@
         <v>61135</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1">
@@ -48469,7 +51707,7 @@
       <c r="L32" s="26">
         <v>44464</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="48">
         <v>499</v>
       </c>
     </row>
@@ -48506,7 +51744,7 @@
       <c r="L33" s="26">
         <v>44201</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="48">
         <v>499</v>
       </c>
       <c r="P33" t="s">
@@ -48555,7 +51793,7 @@
       <c r="L34" s="26">
         <v>44439</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="48">
         <v>498</v>
       </c>
       <c r="P34" s="36">
@@ -48604,7 +51842,7 @@
       <c r="L35" s="26">
         <v>44539</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="48">
         <v>498</v>
       </c>
     </row>
@@ -48641,7 +51879,7 @@
       <c r="L36" s="26">
         <v>44471</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="48">
         <v>496</v>
       </c>
     </row>
@@ -48678,7 +51916,7 @@
       <c r="L37" s="26">
         <v>44434</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="48">
         <v>496</v>
       </c>
     </row>
@@ -48715,7 +51953,7 @@
       <c r="L38" s="26">
         <v>44259</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="48">
         <v>494</v>
       </c>
     </row>
@@ -48752,7 +51990,7 @@
       <c r="L39" s="26">
         <v>44381</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="48">
         <v>494</v>
       </c>
     </row>
@@ -48789,7 +52027,7 @@
       <c r="L40" s="26">
         <v>44368</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="48">
         <v>493</v>
       </c>
     </row>
@@ -48826,7 +52064,7 @@
       <c r="L41" s="26">
         <v>44509</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="48">
         <v>493</v>
       </c>
     </row>
@@ -48863,7 +52101,7 @@
       <c r="L42" s="26">
         <v>44447</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="48">
         <v>492</v>
       </c>
     </row>
@@ -48900,7 +52138,7 @@
       <c r="L43" s="26">
         <v>44384</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="48">
         <v>491</v>
       </c>
     </row>
@@ -48937,7 +52175,7 @@
       <c r="L44" s="26">
         <v>44475</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="48">
         <v>489</v>
       </c>
     </row>
@@ -48974,7 +52212,7 @@
       <c r="L45" s="26">
         <v>44246</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="48">
         <v>488</v>
       </c>
     </row>
@@ -49011,7 +52249,7 @@
       <c r="L46" s="26">
         <v>44530</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="48">
         <v>487</v>
       </c>
     </row>
@@ -49048,7 +52286,7 @@
       <c r="L47" s="26">
         <v>44251</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="48">
         <v>487</v>
       </c>
     </row>
@@ -49085,7 +52323,7 @@
       <c r="L48" s="26">
         <v>44510</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="48">
         <v>486</v>
       </c>
     </row>
@@ -49122,7 +52360,7 @@
       <c r="L49" s="26">
         <v>44372</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="48">
         <v>486</v>
       </c>
     </row>
@@ -49159,7 +52397,7 @@
       <c r="L50" s="26">
         <v>44538</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="48">
         <v>484</v>
       </c>
     </row>
@@ -49196,7 +52434,7 @@
       <c r="L51" s="26">
         <v>44229</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="48">
         <v>482</v>
       </c>
     </row>
@@ -49233,7 +52471,7 @@
       <c r="L52" s="26">
         <v>44403</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="48">
         <v>482</v>
       </c>
     </row>
@@ -49270,7 +52508,7 @@
       <c r="L53" s="26">
         <v>44529</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="48">
         <v>482</v>
       </c>
     </row>
@@ -49307,7 +52545,7 @@
       <c r="L54" s="26">
         <v>44405</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="48">
         <v>482</v>
       </c>
     </row>
@@ -49344,7 +52582,7 @@
       <c r="L55" s="26">
         <v>44348</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="48">
         <v>479</v>
       </c>
     </row>
@@ -49381,7 +52619,7 @@
       <c r="L56" s="26">
         <v>44406</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="48">
         <v>475</v>
       </c>
     </row>
@@ -49418,7 +52656,7 @@
       <c r="L57" s="26">
         <v>44265</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="48">
         <v>475</v>
       </c>
     </row>
@@ -49455,7 +52693,7 @@
       <c r="L58" s="26">
         <v>44410</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="48">
         <v>474</v>
       </c>
     </row>
@@ -49492,7 +52730,7 @@
       <c r="L59" s="26">
         <v>44287</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="48">
         <v>474</v>
       </c>
     </row>
@@ -49529,7 +52767,7 @@
       <c r="L60" s="26">
         <v>44557</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="48">
         <v>474</v>
       </c>
     </row>
@@ -49566,7 +52804,7 @@
       <c r="L61" s="26">
         <v>44344</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="48">
         <v>472</v>
       </c>
     </row>
@@ -49603,7 +52841,7 @@
       <c r="L62" s="26">
         <v>44438</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="48">
         <v>470</v>
       </c>
     </row>
@@ -49640,7 +52878,7 @@
       <c r="L63" s="26">
         <v>44204</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="48">
         <v>468</v>
       </c>
     </row>
@@ -49677,7 +52915,7 @@
       <c r="L64" s="26">
         <v>44346</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="48">
         <v>465</v>
       </c>
     </row>
@@ -49714,7 +52952,7 @@
       <c r="L65" s="26">
         <v>44472</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="48">
         <v>464</v>
       </c>
     </row>
@@ -49751,7 +52989,7 @@
       <c r="L66" s="26">
         <v>44310</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="48">
         <v>463</v>
       </c>
     </row>
@@ -49788,7 +53026,7 @@
       <c r="L67" s="26">
         <v>44360</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="48">
         <v>463</v>
       </c>
     </row>
@@ -49825,7 +53063,7 @@
       <c r="L68" s="26">
         <v>44380</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="48">
         <v>459</v>
       </c>
     </row>
@@ -49862,7 +53100,7 @@
       <c r="L69" s="26">
         <v>44366</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="48">
         <v>457</v>
       </c>
     </row>
@@ -49899,7 +53137,7 @@
       <c r="L70" s="26">
         <v>44212</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="48">
         <v>455</v>
       </c>
     </row>
@@ -49936,7 +53174,7 @@
       <c r="L71" s="26">
         <v>44217</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="48">
         <v>454</v>
       </c>
     </row>
@@ -49973,7 +53211,7 @@
       <c r="L72" s="26">
         <v>44419</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="48">
         <v>454</v>
       </c>
     </row>
@@ -50010,7 +53248,7 @@
       <c r="L73" s="26">
         <v>44199</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="48">
         <v>450</v>
       </c>
     </row>
@@ -50047,7 +53285,7 @@
       <c r="L74" s="26">
         <v>44356</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="48">
         <v>449</v>
       </c>
     </row>
@@ -50084,7 +53322,7 @@
       <c r="L75" s="26">
         <v>44386</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="48">
         <v>449</v>
       </c>
     </row>
@@ -50121,7 +53359,7 @@
       <c r="L76" s="26">
         <v>44517</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="48">
         <v>448</v>
       </c>
     </row>
@@ -50158,7 +53396,7 @@
       <c r="L77" s="26">
         <v>44197</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="48">
         <v>446</v>
       </c>
     </row>
@@ -50195,7 +53433,7 @@
       <c r="L78" s="26">
         <v>44478</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="48">
         <v>445</v>
       </c>
     </row>
@@ -50232,7 +53470,7 @@
       <c r="L79" s="26">
         <v>44522</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="48">
         <v>444</v>
       </c>
     </row>
@@ -50269,7 +53507,7 @@
       <c r="L80" s="26">
         <v>44468</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="48">
         <v>444</v>
       </c>
     </row>
@@ -50306,7 +53544,7 @@
       <c r="L81" s="26">
         <v>44271</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="48">
         <v>444</v>
       </c>
     </row>
@@ -50343,7 +53581,7 @@
       <c r="L82" s="26">
         <v>44404</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="48">
         <v>443</v>
       </c>
     </row>
@@ -50380,7 +53618,7 @@
       <c r="L83" s="26">
         <v>44238</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="48">
         <v>442</v>
       </c>
     </row>
@@ -50417,7 +53655,7 @@
       <c r="L84" s="26">
         <v>44269</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="48">
         <v>442</v>
       </c>
     </row>
@@ -50454,7 +53692,7 @@
       <c r="L85" s="26">
         <v>44422</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="48">
         <v>442</v>
       </c>
     </row>
@@ -50491,7 +53729,7 @@
       <c r="L86" s="26">
         <v>44221</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="48">
         <v>440</v>
       </c>
     </row>
@@ -50528,7 +53766,7 @@
       <c r="L87" s="26">
         <v>44319</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="48">
         <v>439</v>
       </c>
     </row>
@@ -50565,7 +53803,7 @@
       <c r="L88" s="26">
         <v>44224</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="48">
         <v>438</v>
       </c>
     </row>
@@ -50602,7 +53840,7 @@
       <c r="L89" s="26">
         <v>44273</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="48">
         <v>438</v>
       </c>
     </row>
@@ -50639,7 +53877,7 @@
       <c r="L90" s="26">
         <v>44401</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="48">
         <v>437</v>
       </c>
     </row>
@@ -50676,7 +53914,7 @@
       <c r="L91" s="26">
         <v>44445</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="48">
         <v>436</v>
       </c>
     </row>
@@ -50713,7 +53951,7 @@
       <c r="L92" s="26">
         <v>44537</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="48">
         <v>436</v>
       </c>
     </row>
@@ -50750,7 +53988,7 @@
       <c r="L93" s="26">
         <v>44473</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="48">
         <v>436</v>
       </c>
     </row>
@@ -50787,7 +54025,7 @@
       <c r="L94" s="26">
         <v>44486</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="48">
         <v>432</v>
       </c>
     </row>
@@ -50824,7 +54062,7 @@
       <c r="L95" s="26">
         <v>44453</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="48">
         <v>432</v>
       </c>
     </row>
@@ -50861,7 +54099,7 @@
       <c r="L96" s="26">
         <v>44456</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="48">
         <v>431</v>
       </c>
     </row>
@@ -50898,7 +54136,7 @@
       <c r="L97" s="26">
         <v>44547</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="48">
         <v>427</v>
       </c>
     </row>
@@ -50935,7 +54173,7 @@
       <c r="L98" s="26">
         <v>44542</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="48">
         <v>427</v>
       </c>
     </row>
@@ -50972,7 +54210,7 @@
       <c r="L99" s="26">
         <v>44276</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="48">
         <v>426</v>
       </c>
     </row>
@@ -51009,7 +54247,7 @@
       <c r="L100" s="26">
         <v>44459</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="48">
         <v>426</v>
       </c>
     </row>
@@ -51046,7 +54284,7 @@
       <c r="L101" s="26">
         <v>44519</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="48">
         <v>424</v>
       </c>
     </row>
@@ -51083,7 +54321,7 @@
       <c r="L102" s="26">
         <v>44303</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="48">
         <v>421</v>
       </c>
     </row>
@@ -51120,7 +54358,7 @@
       <c r="L103" s="26">
         <v>44306</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="48">
         <v>421</v>
       </c>
     </row>
@@ -51157,7 +54395,7 @@
       <c r="L104" s="26">
         <v>44274</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="48">
         <v>420</v>
       </c>
     </row>
@@ -51194,7 +54432,7 @@
       <c r="L105" s="26">
         <v>44442</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="48">
         <v>418</v>
       </c>
     </row>
@@ -51231,7 +54469,7 @@
       <c r="L106" s="26">
         <v>44470</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="48">
         <v>417</v>
       </c>
     </row>
@@ -51268,7 +54506,7 @@
       <c r="L107" s="26">
         <v>44322</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="48">
         <v>417</v>
       </c>
     </row>
@@ -51305,7 +54543,7 @@
       <c r="L108" s="26">
         <v>44503</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="48">
         <v>417</v>
       </c>
     </row>
@@ -51342,7 +54580,7 @@
       <c r="L109" s="26">
         <v>44421</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="48">
         <v>415</v>
       </c>
     </row>
@@ -51379,7 +54617,7 @@
       <c r="L110" s="26">
         <v>44245</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="48">
         <v>414</v>
       </c>
     </row>
@@ -51416,7 +54654,7 @@
       <c r="L111" s="26">
         <v>44515</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="48">
         <v>414</v>
       </c>
     </row>
@@ -51453,7 +54691,7 @@
       <c r="L112" s="26">
         <v>44549</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="48">
         <v>414</v>
       </c>
     </row>
@@ -51490,7 +54728,7 @@
       <c r="L113" s="26">
         <v>44427</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="48">
         <v>412</v>
       </c>
     </row>
@@ -51527,7 +54765,7 @@
       <c r="L114" s="26">
         <v>44340</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="48">
         <v>412</v>
       </c>
     </row>
@@ -51564,7 +54802,7 @@
       <c r="L115" s="26">
         <v>44481</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="48">
         <v>409</v>
       </c>
     </row>
@@ -51601,7 +54839,7 @@
       <c r="L116" s="26">
         <v>44350</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="48">
         <v>408</v>
       </c>
     </row>
@@ -51638,7 +54876,7 @@
       <c r="L117" s="26">
         <v>44521</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="48">
         <v>407</v>
       </c>
     </row>
@@ -51675,7 +54913,7 @@
       <c r="L118" s="26">
         <v>44207</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="48">
         <v>403</v>
       </c>
     </row>
@@ -51712,7 +54950,7 @@
       <c r="L119" s="26">
         <v>44412</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="48">
         <v>401</v>
       </c>
     </row>
@@ -51749,7 +54987,7 @@
       <c r="L120" s="26">
         <v>44311</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="48">
         <v>398</v>
       </c>
     </row>
@@ -51786,7 +55024,7 @@
       <c r="L121" s="26">
         <v>44355</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="48">
         <v>397</v>
       </c>
     </row>
@@ -51823,7 +55061,7 @@
       <c r="L122" s="26">
         <v>44316</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="48">
         <v>395</v>
       </c>
     </row>
@@ -51860,7 +55098,7 @@
       <c r="L123" s="26">
         <v>44292</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="48">
         <v>395</v>
       </c>
     </row>
@@ -51897,7 +55135,7 @@
       <c r="L124" s="26">
         <v>44375</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="48">
         <v>395</v>
       </c>
     </row>
@@ -51934,7 +55172,7 @@
       <c r="L125" s="26">
         <v>44377</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="48">
         <v>395</v>
       </c>
     </row>
@@ -51971,7 +55209,7 @@
       <c r="L126" s="26">
         <v>44465</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="48">
         <v>394</v>
       </c>
     </row>
@@ -52008,7 +55246,7 @@
       <c r="L127" s="26">
         <v>44335</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="48">
         <v>392</v>
       </c>
     </row>
@@ -52045,7 +55283,7 @@
       <c r="L128" s="26">
         <v>44373</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="48">
         <v>392</v>
       </c>
     </row>
@@ -52082,7 +55320,7 @@
       <c r="L129" s="26">
         <v>44304</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="48">
         <v>392</v>
       </c>
     </row>
@@ -52119,7 +55357,7 @@
       <c r="L130" s="26">
         <v>44307</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="48">
         <v>391</v>
       </c>
     </row>
@@ -52156,7 +55394,7 @@
       <c r="L131" s="26">
         <v>44205</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="48">
         <v>390</v>
       </c>
     </row>
@@ -52193,7 +55431,7 @@
       <c r="L132" s="26">
         <v>44208</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="48">
         <v>390</v>
       </c>
     </row>
@@ -52230,7 +55468,7 @@
       <c r="L133" s="26">
         <v>44362</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="48">
         <v>389</v>
       </c>
     </row>
@@ -52267,7 +55505,7 @@
       <c r="L134" s="26">
         <v>44258</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="48">
         <v>387</v>
       </c>
     </row>
@@ -52304,7 +55542,7 @@
       <c r="L135" s="26">
         <v>44516</v>
       </c>
-      <c r="M135">
+      <c r="M135" s="48">
         <v>386</v>
       </c>
     </row>
@@ -52341,7 +55579,7 @@
       <c r="L136" s="26">
         <v>44524</v>
       </c>
-      <c r="M136">
+      <c r="M136" s="48">
         <v>386</v>
       </c>
     </row>
@@ -52378,7 +55616,7 @@
       <c r="L137" s="26">
         <v>44561</v>
       </c>
-      <c r="M137">
+      <c r="M137" s="48">
         <v>385</v>
       </c>
     </row>
@@ -52415,7 +55653,7 @@
       <c r="L138" s="26">
         <v>44397</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="48">
         <v>381</v>
       </c>
     </row>
@@ -52452,7 +55690,7 @@
       <c r="L139" s="26">
         <v>44485</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="48">
         <v>380</v>
       </c>
     </row>
@@ -52489,7 +55727,7 @@
       <c r="L140" s="26">
         <v>44545</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="48">
         <v>378</v>
       </c>
     </row>
@@ -52526,7 +55764,7 @@
       <c r="L141" s="26">
         <v>44433</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="48">
         <v>377</v>
       </c>
     </row>
@@ -52563,7 +55801,7 @@
       <c r="L142" s="26">
         <v>44407</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="48">
         <v>377</v>
       </c>
     </row>
@@ -52600,7 +55838,7 @@
       <c r="L143" s="26">
         <v>44267</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="48">
         <v>376</v>
       </c>
     </row>
@@ -52637,7 +55875,7 @@
       <c r="L144" s="26">
         <v>44235</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="48">
         <v>375</v>
       </c>
     </row>
@@ -52674,7 +55912,7 @@
       <c r="L145" s="26">
         <v>44364</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="48">
         <v>375</v>
       </c>
     </row>
@@ -52711,7 +55949,7 @@
       <c r="L146" s="26">
         <v>44347</v>
       </c>
-      <c r="M146">
+      <c r="M146" s="48">
         <v>375</v>
       </c>
     </row>
@@ -52748,7 +55986,7 @@
       <c r="L147" s="26">
         <v>44535</v>
       </c>
-      <c r="M147">
+      <c r="M147" s="48">
         <v>375</v>
       </c>
     </row>
@@ -52785,7 +56023,7 @@
       <c r="L148" s="26">
         <v>44540</v>
       </c>
-      <c r="M148">
+      <c r="M148" s="48">
         <v>372</v>
       </c>
     </row>
@@ -52822,7 +56060,7 @@
       <c r="L149" s="26">
         <v>44353</v>
       </c>
-      <c r="M149">
+      <c r="M149" s="48">
         <v>372</v>
       </c>
     </row>
@@ -52859,7 +56097,7 @@
       <c r="L150" s="26">
         <v>44556</v>
       </c>
-      <c r="M150">
+      <c r="M150" s="48">
         <v>371</v>
       </c>
     </row>
@@ -52896,7 +56134,7 @@
       <c r="L151" s="26">
         <v>44370</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="48">
         <v>370</v>
       </c>
     </row>
@@ -52933,7 +56171,7 @@
       <c r="L152" s="26">
         <v>44441</v>
       </c>
-      <c r="M152">
+      <c r="M152" s="48">
         <v>370</v>
       </c>
     </row>
@@ -52970,7 +56208,7 @@
       <c r="L153" s="26">
         <v>44479</v>
       </c>
-      <c r="M153">
+      <c r="M153" s="48">
         <v>369</v>
       </c>
     </row>
@@ -53007,7 +56245,7 @@
       <c r="L154" s="26">
         <v>44552</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="48">
         <v>368</v>
       </c>
     </row>
@@ -53044,7 +56282,7 @@
       <c r="L155" s="26">
         <v>44203</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="48">
         <v>368</v>
       </c>
     </row>
@@ -53081,7 +56319,7 @@
       <c r="L156" s="26">
         <v>44352</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="48">
         <v>367</v>
       </c>
     </row>
@@ -53118,7 +56356,7 @@
       <c r="L157" s="26">
         <v>44249</v>
       </c>
-      <c r="M157">
+      <c r="M157" s="48">
         <v>367</v>
       </c>
     </row>
@@ -53155,7 +56393,7 @@
       <c r="L158" s="26">
         <v>44291</v>
       </c>
-      <c r="M158">
+      <c r="M158" s="48">
         <v>367</v>
       </c>
     </row>
@@ -53192,7 +56430,7 @@
       <c r="L159" s="26">
         <v>44416</v>
       </c>
-      <c r="M159">
+      <c r="M159" s="48">
         <v>365</v>
       </c>
     </row>
@@ -53229,7 +56467,7 @@
       <c r="L160" s="26">
         <v>44432</v>
       </c>
-      <c r="M160">
+      <c r="M160" s="48">
         <v>364</v>
       </c>
     </row>
@@ -53266,7 +56504,7 @@
       <c r="L161" s="26">
         <v>44548</v>
       </c>
-      <c r="M161">
+      <c r="M161" s="48">
         <v>363</v>
       </c>
     </row>
@@ -53303,7 +56541,7 @@
       <c r="L162" s="26">
         <v>44341</v>
       </c>
-      <c r="M162">
+      <c r="M162" s="48">
         <v>363</v>
       </c>
     </row>
@@ -53340,7 +56578,7 @@
       <c r="L163" s="26">
         <v>44277</v>
       </c>
-      <c r="M163">
+      <c r="M163" s="48">
         <v>359</v>
       </c>
     </row>
@@ -53377,7 +56615,7 @@
       <c r="L164" s="26">
         <v>44331</v>
       </c>
-      <c r="M164">
+      <c r="M164" s="48">
         <v>355</v>
       </c>
     </row>
@@ -53414,7 +56652,7 @@
       <c r="L165" s="26">
         <v>44215</v>
       </c>
-      <c r="M165">
+      <c r="M165" s="48">
         <v>355</v>
       </c>
     </row>
@@ -53451,7 +56689,7 @@
       <c r="L166" s="26">
         <v>44511</v>
       </c>
-      <c r="M166">
+      <c r="M166" s="48">
         <v>355</v>
       </c>
     </row>
@@ -53488,7 +56726,7 @@
       <c r="L167" s="26">
         <v>44518</v>
       </c>
-      <c r="M167">
+      <c r="M167" s="48">
         <v>354</v>
       </c>
     </row>
@@ -53525,7 +56763,7 @@
       <c r="L168" s="26">
         <v>44525</v>
       </c>
-      <c r="M168">
+      <c r="M168" s="48">
         <v>353</v>
       </c>
     </row>
@@ -53562,7 +56800,7 @@
       <c r="L169" s="26">
         <v>44202</v>
       </c>
-      <c r="M169">
+      <c r="M169" s="48">
         <v>352</v>
       </c>
     </row>
@@ -53599,7 +56837,7 @@
       <c r="L170" s="26">
         <v>44363</v>
       </c>
-      <c r="M170">
+      <c r="M170" s="48">
         <v>350</v>
       </c>
     </row>
@@ -53636,7 +56874,7 @@
       <c r="L171" s="26">
         <v>44527</v>
       </c>
-      <c r="M171">
+      <c r="M171" s="48">
         <v>349</v>
       </c>
     </row>
@@ -53673,7 +56911,7 @@
       <c r="L172" s="26">
         <v>44460</v>
       </c>
-      <c r="M172">
+      <c r="M172" s="48">
         <v>348</v>
       </c>
     </row>
@@ -53710,7 +56948,7 @@
       <c r="L173" s="26">
         <v>44501</v>
       </c>
-      <c r="M173">
+      <c r="M173" s="48">
         <v>346</v>
       </c>
     </row>
@@ -53747,7 +56985,7 @@
       <c r="L174" s="26">
         <v>44425</v>
       </c>
-      <c r="M174">
+      <c r="M174" s="48">
         <v>346</v>
       </c>
     </row>
@@ -53784,7 +57022,7 @@
       <c r="L175" s="26">
         <v>44252</v>
       </c>
-      <c r="M175">
+      <c r="M175" s="48">
         <v>345</v>
       </c>
     </row>
@@ -53821,7 +57059,7 @@
       <c r="L176" s="26">
         <v>44559</v>
       </c>
-      <c r="M176">
+      <c r="M176" s="48">
         <v>345</v>
       </c>
     </row>
@@ -53858,7 +57096,7 @@
       <c r="L177" s="26">
         <v>44496</v>
       </c>
-      <c r="M177">
+      <c r="M177" s="48">
         <v>345</v>
       </c>
     </row>
@@ -53895,7 +57133,7 @@
       <c r="L178" s="26">
         <v>44282</v>
       </c>
-      <c r="M178">
+      <c r="M178" s="48">
         <v>341</v>
       </c>
     </row>
@@ -53932,7 +57170,7 @@
       <c r="L179" s="26">
         <v>44337</v>
       </c>
-      <c r="M179">
+      <c r="M179" s="48">
         <v>338</v>
       </c>
     </row>
@@ -53969,7 +57207,7 @@
       <c r="L180" s="26">
         <v>44326</v>
       </c>
-      <c r="M180">
+      <c r="M180" s="48">
         <v>338</v>
       </c>
     </row>
@@ -54006,7 +57244,7 @@
       <c r="L181" s="26">
         <v>44418</v>
       </c>
-      <c r="M181">
+      <c r="M181" s="48">
         <v>337</v>
       </c>
     </row>
@@ -54043,7 +57281,7 @@
       <c r="L182" s="26">
         <v>44495</v>
       </c>
-      <c r="M182">
+      <c r="M182" s="48">
         <v>336</v>
       </c>
     </row>
@@ -54080,7 +57318,7 @@
       <c r="L183" s="26">
         <v>44378</v>
       </c>
-      <c r="M183">
+      <c r="M183" s="48">
         <v>335</v>
       </c>
     </row>
@@ -54117,7 +57355,7 @@
       <c r="L184" s="26">
         <v>44216</v>
       </c>
-      <c r="M184">
+      <c r="M184" s="48">
         <v>334</v>
       </c>
     </row>
@@ -54154,7 +57392,7 @@
       <c r="L185" s="26">
         <v>44323</v>
       </c>
-      <c r="M185">
+      <c r="M185" s="48">
         <v>334</v>
       </c>
     </row>
@@ -54191,7 +57429,7 @@
       <c r="L186" s="26">
         <v>44336</v>
       </c>
-      <c r="M186">
+      <c r="M186" s="48">
         <v>333</v>
       </c>
     </row>
@@ -54228,7 +57466,7 @@
       <c r="L187" s="26">
         <v>44349</v>
       </c>
-      <c r="M187">
+      <c r="M187" s="48">
         <v>330</v>
       </c>
     </row>
@@ -54265,7 +57503,7 @@
       <c r="L188" s="26">
         <v>44305</v>
       </c>
-      <c r="M188">
+      <c r="M188" s="48">
         <v>329</v>
       </c>
     </row>
@@ -54302,7 +57540,7 @@
       <c r="L189" s="26">
         <v>44553</v>
       </c>
-      <c r="M189">
+      <c r="M189" s="48">
         <v>328</v>
       </c>
     </row>
@@ -54339,7 +57577,7 @@
       <c r="L190" s="26">
         <v>44474</v>
       </c>
-      <c r="M190">
+      <c r="M190" s="48">
         <v>328</v>
       </c>
     </row>
@@ -54376,7 +57614,7 @@
       <c r="L191" s="26">
         <v>44461</v>
       </c>
-      <c r="M191">
+      <c r="M191" s="48">
         <v>326</v>
       </c>
     </row>
@@ -54413,7 +57651,7 @@
       <c r="L192" s="26">
         <v>44497</v>
       </c>
-      <c r="M192">
+      <c r="M192" s="48">
         <v>325</v>
       </c>
     </row>
@@ -54450,7 +57688,7 @@
       <c r="L193" s="26">
         <v>44431</v>
       </c>
-      <c r="M193">
+      <c r="M193" s="48">
         <v>325</v>
       </c>
     </row>
@@ -54487,7 +57725,7 @@
       <c r="L194" s="26">
         <v>44469</v>
       </c>
-      <c r="M194">
+      <c r="M194" s="48">
         <v>323</v>
       </c>
     </row>
@@ -54524,7 +57762,7 @@
       <c r="L195" s="26">
         <v>44400</v>
       </c>
-      <c r="M195">
+      <c r="M195" s="48">
         <v>322</v>
       </c>
     </row>
@@ -54561,7 +57799,7 @@
       <c r="L196" s="26">
         <v>44338</v>
       </c>
-      <c r="M196">
+      <c r="M196" s="48">
         <v>322</v>
       </c>
     </row>
@@ -54598,7 +57836,7 @@
       <c r="L197" s="26">
         <v>44426</v>
       </c>
-      <c r="M197">
+      <c r="M197" s="48">
         <v>322</v>
       </c>
     </row>
@@ -54635,7 +57873,7 @@
       <c r="L198" s="26">
         <v>44295</v>
       </c>
-      <c r="M198">
+      <c r="M198" s="48">
         <v>321</v>
       </c>
     </row>
@@ -54672,7 +57910,7 @@
       <c r="L199" s="26">
         <v>44345</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="48">
         <v>321</v>
       </c>
     </row>
@@ -54709,7 +57947,7 @@
       <c r="L200" s="26">
         <v>44493</v>
       </c>
-      <c r="M200">
+      <c r="M200" s="48">
         <v>321</v>
       </c>
     </row>
@@ -54746,7 +57984,7 @@
       <c r="L201" s="26">
         <v>44491</v>
       </c>
-      <c r="M201">
+      <c r="M201" s="48">
         <v>319</v>
       </c>
     </row>
@@ -54783,7 +58021,7 @@
       <c r="L202" s="26">
         <v>44543</v>
       </c>
-      <c r="M202">
+      <c r="M202" s="48">
         <v>318</v>
       </c>
     </row>
@@ -54820,7 +58058,7 @@
       <c r="L203" s="26">
         <v>44451</v>
       </c>
-      <c r="M203">
+      <c r="M203" s="48">
         <v>318</v>
       </c>
     </row>
@@ -54857,7 +58095,7 @@
       <c r="L204" s="26">
         <v>44450</v>
       </c>
-      <c r="M204">
+      <c r="M204" s="48">
         <v>317</v>
       </c>
     </row>
@@ -54894,7 +58132,7 @@
       <c r="L205" s="26">
         <v>44367</v>
       </c>
-      <c r="M205">
+      <c r="M205" s="48">
         <v>315</v>
       </c>
     </row>
@@ -54931,7 +58169,7 @@
       <c r="L206" s="26">
         <v>44329</v>
       </c>
-      <c r="M206">
+      <c r="M206" s="48">
         <v>314</v>
       </c>
     </row>
@@ -54968,7 +58206,7 @@
       <c r="L207" s="26">
         <v>44281</v>
       </c>
-      <c r="M207">
+      <c r="M207" s="48">
         <v>313</v>
       </c>
     </row>
@@ -55005,7 +58243,7 @@
       <c r="L208" s="26">
         <v>44526</v>
       </c>
-      <c r="M208">
+      <c r="M208" s="48">
         <v>312</v>
       </c>
     </row>
@@ -55042,7 +58280,7 @@
       <c r="L209" s="26">
         <v>44334</v>
       </c>
-      <c r="M209">
+      <c r="M209" s="48">
         <v>311</v>
       </c>
     </row>
@@ -55079,7 +58317,7 @@
       <c r="L210" s="26">
         <v>44237</v>
       </c>
-      <c r="M210">
+      <c r="M210" s="48">
         <v>310</v>
       </c>
     </row>
@@ -55116,7 +58354,7 @@
       <c r="L211" s="26">
         <v>44458</v>
       </c>
-      <c r="M211">
+      <c r="M211" s="48">
         <v>310</v>
       </c>
     </row>
@@ -55153,7 +58391,7 @@
       <c r="L212" s="26">
         <v>44264</v>
       </c>
-      <c r="M212">
+      <c r="M212" s="48">
         <v>309</v>
       </c>
     </row>
@@ -55190,7 +58428,7 @@
       <c r="L213" s="26">
         <v>44560</v>
       </c>
-      <c r="M213">
+      <c r="M213" s="48">
         <v>309</v>
       </c>
     </row>
@@ -55227,7 +58465,7 @@
       <c r="L214" s="26">
         <v>44317</v>
       </c>
-      <c r="M214">
+      <c r="M214" s="48">
         <v>308</v>
       </c>
     </row>
@@ -55264,7 +58502,7 @@
       <c r="L215" s="26">
         <v>44283</v>
       </c>
-      <c r="M215">
+      <c r="M215" s="48">
         <v>308</v>
       </c>
     </row>
@@ -55301,7 +58539,7 @@
       <c r="L216" s="26">
         <v>44498</v>
       </c>
-      <c r="M216">
+      <c r="M216" s="48">
         <v>307</v>
       </c>
     </row>
@@ -55338,7 +58576,7 @@
       <c r="L217" s="26">
         <v>44454</v>
       </c>
-      <c r="M217">
+      <c r="M217" s="48">
         <v>307</v>
       </c>
     </row>
@@ -55375,7 +58613,7 @@
       <c r="L218" s="26">
         <v>44219</v>
       </c>
-      <c r="M218">
+      <c r="M218" s="48">
         <v>307</v>
       </c>
     </row>
@@ -55412,7 +58650,7 @@
       <c r="L219" s="26">
         <v>44290</v>
       </c>
-      <c r="M219">
+      <c r="M219" s="48">
         <v>306</v>
       </c>
     </row>
@@ -55449,7 +58687,7 @@
       <c r="L220" s="26">
         <v>44342</v>
       </c>
-      <c r="M220">
+      <c r="M220" s="48">
         <v>306</v>
       </c>
     </row>
@@ -55486,7 +58724,7 @@
       <c r="L221" s="26">
         <v>44214</v>
       </c>
-      <c r="M221">
+      <c r="M221" s="48">
         <v>306</v>
       </c>
     </row>
@@ -55523,7 +58761,7 @@
       <c r="L222" s="26">
         <v>44506</v>
       </c>
-      <c r="M222">
+      <c r="M222" s="48">
         <v>305</v>
       </c>
     </row>
@@ -55560,7 +58798,7 @@
       <c r="L223" s="26">
         <v>44536</v>
       </c>
-      <c r="M223">
+      <c r="M223" s="48">
         <v>304</v>
       </c>
     </row>
@@ -55597,7 +58835,7 @@
       <c r="L224" s="26">
         <v>44257</v>
       </c>
-      <c r="M224">
+      <c r="M224" s="48">
         <v>302</v>
       </c>
     </row>
@@ -55634,7 +58872,7 @@
       <c r="L225" s="26">
         <v>44455</v>
       </c>
-      <c r="M225">
+      <c r="M225" s="48">
         <v>300</v>
       </c>
     </row>
@@ -55671,7 +58909,7 @@
       <c r="L226" s="26">
         <v>44500</v>
       </c>
-      <c r="M226">
+      <c r="M226" s="48">
         <v>299</v>
       </c>
     </row>
@@ -55708,7 +58946,7 @@
       <c r="L227" s="26">
         <v>44220</v>
       </c>
-      <c r="M227">
+      <c r="M227" s="48">
         <v>296</v>
       </c>
     </row>
@@ -55745,7 +58983,7 @@
       <c r="L228" s="26">
         <v>44243</v>
       </c>
-      <c r="M228">
+      <c r="M228" s="48">
         <v>296</v>
       </c>
     </row>
@@ -55782,7 +59020,7 @@
       <c r="L229" s="26">
         <v>44466</v>
       </c>
-      <c r="M229">
+      <c r="M229" s="48">
         <v>295</v>
       </c>
     </row>
@@ -55819,7 +59057,7 @@
       <c r="L230" s="26">
         <v>44278</v>
       </c>
-      <c r="M230">
+      <c r="M230" s="48">
         <v>292</v>
       </c>
     </row>
@@ -55856,7 +59094,7 @@
       <c r="L231" s="26">
         <v>44383</v>
       </c>
-      <c r="M231">
+      <c r="M231" s="48">
         <v>291</v>
       </c>
     </row>
@@ -55893,7 +59131,7 @@
       <c r="L232" s="26">
         <v>44415</v>
       </c>
-      <c r="M232">
+      <c r="M232" s="48">
         <v>291</v>
       </c>
     </row>
@@ -55930,7 +59168,7 @@
       <c r="L233" s="26">
         <v>44489</v>
       </c>
-      <c r="M233">
+      <c r="M233" s="48">
         <v>290</v>
       </c>
     </row>
@@ -55967,7 +59205,7 @@
       <c r="L234" s="26">
         <v>44244</v>
       </c>
-      <c r="M234">
+      <c r="M234" s="48">
         <v>290</v>
       </c>
     </row>
@@ -56004,7 +59242,7 @@
       <c r="L235" s="26">
         <v>44520</v>
       </c>
-      <c r="M235">
+      <c r="M235" s="48">
         <v>289</v>
       </c>
     </row>
@@ -56041,7 +59279,7 @@
       <c r="L236" s="26">
         <v>44414</v>
       </c>
-      <c r="M236">
+      <c r="M236" s="48">
         <v>289</v>
       </c>
     </row>
@@ -56078,7 +59316,7 @@
       <c r="L237" s="26">
         <v>44555</v>
       </c>
-      <c r="M237">
+      <c r="M237" s="48">
         <v>288</v>
       </c>
     </row>
@@ -56115,7 +59353,7 @@
       <c r="L238" s="26">
         <v>44260</v>
       </c>
-      <c r="M238">
+      <c r="M238" s="48">
         <v>288</v>
       </c>
     </row>
@@ -56152,7 +59390,7 @@
       <c r="L239" s="26">
         <v>44477</v>
       </c>
-      <c r="M239">
+      <c r="M239" s="48">
         <v>287</v>
       </c>
     </row>
@@ -56189,7 +59427,7 @@
       <c r="L240" s="26">
         <v>44488</v>
       </c>
-      <c r="M240">
+      <c r="M240" s="48">
         <v>286</v>
       </c>
     </row>
@@ -56226,7 +59464,7 @@
       <c r="L241" s="26">
         <v>44206</v>
       </c>
-      <c r="M241">
+      <c r="M241" s="48">
         <v>286</v>
       </c>
     </row>
@@ -56263,7 +59501,7 @@
       <c r="L242" s="26">
         <v>44551</v>
       </c>
-      <c r="M242">
+      <c r="M242" s="48">
         <v>286</v>
       </c>
     </row>
@@ -56300,7 +59538,7 @@
       <c r="L243" s="26">
         <v>44512</v>
       </c>
-      <c r="M243">
+      <c r="M243" s="48">
         <v>286</v>
       </c>
     </row>
@@ -56337,7 +59575,7 @@
       <c r="L244" s="26">
         <v>44467</v>
       </c>
-      <c r="M244">
+      <c r="M244" s="48">
         <v>286</v>
       </c>
     </row>
@@ -56374,7 +59612,7 @@
       <c r="L245" s="26">
         <v>44504</v>
       </c>
-      <c r="M245">
+      <c r="M245" s="48">
         <v>284</v>
       </c>
     </row>
@@ -56411,7 +59649,7 @@
       <c r="L246" s="26">
         <v>44430</v>
       </c>
-      <c r="M246">
+      <c r="M246" s="48">
         <v>283</v>
       </c>
     </row>
@@ -56448,7 +59686,7 @@
       <c r="L247" s="26">
         <v>44299</v>
       </c>
-      <c r="M247">
+      <c r="M247" s="48">
         <v>283</v>
       </c>
     </row>
@@ -56485,7 +59723,7 @@
       <c r="L248" s="26">
         <v>44241</v>
       </c>
-      <c r="M248">
+      <c r="M248" s="48">
         <v>282</v>
       </c>
     </row>
@@ -56522,7 +59760,7 @@
       <c r="L249" s="26">
         <v>44213</v>
       </c>
-      <c r="M249">
+      <c r="M249" s="48">
         <v>282</v>
       </c>
     </row>
@@ -56559,7 +59797,7 @@
       <c r="L250" s="26">
         <v>44263</v>
       </c>
-      <c r="M250">
+      <c r="M250" s="48">
         <v>281</v>
       </c>
     </row>
@@ -56596,7 +59834,7 @@
       <c r="L251" s="26">
         <v>44272</v>
       </c>
-      <c r="M251">
+      <c r="M251" s="48">
         <v>281</v>
       </c>
     </row>
@@ -56633,7 +59871,7 @@
       <c r="L252" s="26">
         <v>44328</v>
       </c>
-      <c r="M252">
+      <c r="M252" s="48">
         <v>280</v>
       </c>
     </row>
@@ -56670,7 +59908,7 @@
       <c r="L253" s="26">
         <v>44429</v>
       </c>
-      <c r="M253">
+      <c r="M253" s="48">
         <v>280</v>
       </c>
     </row>
@@ -56707,7 +59945,7 @@
       <c r="L254" s="26">
         <v>44333</v>
       </c>
-      <c r="M254">
+      <c r="M254" s="48">
         <v>278</v>
       </c>
     </row>
@@ -56744,7 +59982,7 @@
       <c r="L255" s="26">
         <v>44514</v>
       </c>
-      <c r="M255">
+      <c r="M255" s="48">
         <v>276</v>
       </c>
     </row>
@@ -56781,7 +60019,7 @@
       <c r="L256" s="26">
         <v>44436</v>
       </c>
-      <c r="M256">
+      <c r="M256" s="48">
         <v>275</v>
       </c>
     </row>
@@ -56818,7 +60056,7 @@
       <c r="L257" s="26">
         <v>44546</v>
       </c>
-      <c r="M257">
+      <c r="M257" s="48">
         <v>273</v>
       </c>
     </row>
@@ -56855,7 +60093,7 @@
       <c r="L258" s="26">
         <v>44231</v>
       </c>
-      <c r="M258">
+      <c r="M258" s="48">
         <v>270</v>
       </c>
     </row>
@@ -56892,7 +60130,7 @@
       <c r="L259" s="26">
         <v>44254</v>
       </c>
-      <c r="M259">
+      <c r="M259" s="48">
         <v>269</v>
       </c>
     </row>
@@ -56929,7 +60167,7 @@
       <c r="L260" s="26">
         <v>44443</v>
       </c>
-      <c r="M260">
+      <c r="M260" s="48">
         <v>266</v>
       </c>
     </row>
@@ -56966,7 +60204,7 @@
       <c r="L261" s="26">
         <v>44402</v>
       </c>
-      <c r="M261">
+      <c r="M261" s="48">
         <v>265</v>
       </c>
     </row>
@@ -57003,7 +60241,7 @@
       <c r="L262" s="26">
         <v>44296</v>
       </c>
-      <c r="M262">
+      <c r="M262" s="48">
         <v>265</v>
       </c>
     </row>
@@ -57040,7 +60278,7 @@
       <c r="L263" s="26">
         <v>44210</v>
       </c>
-      <c r="M263">
+      <c r="M263" s="48">
         <v>265</v>
       </c>
     </row>
@@ -57077,7 +60315,7 @@
       <c r="L264" s="26">
         <v>44255</v>
       </c>
-      <c r="M264">
+      <c r="M264" s="48">
         <v>265</v>
       </c>
     </row>
@@ -57114,7 +60352,7 @@
       <c r="L265" s="26">
         <v>44198</v>
       </c>
-      <c r="M265">
+      <c r="M265" s="48">
         <v>262</v>
       </c>
     </row>
@@ -57151,7 +60389,7 @@
       <c r="L266" s="26">
         <v>44487</v>
       </c>
-      <c r="M266">
+      <c r="M266" s="48">
         <v>259</v>
       </c>
     </row>
@@ -57188,7 +60426,7 @@
       <c r="L267" s="26">
         <v>44554</v>
       </c>
-      <c r="M267">
+      <c r="M267" s="48">
         <v>255</v>
       </c>
     </row>
@@ -57225,7 +60463,7 @@
       <c r="L268" s="26">
         <v>44298</v>
       </c>
-      <c r="M268">
+      <c r="M268" s="48">
         <v>255</v>
       </c>
     </row>
@@ -57262,7 +60500,7 @@
       <c r="L269" s="26">
         <v>44261</v>
       </c>
-      <c r="M269">
+      <c r="M269" s="48">
         <v>254</v>
       </c>
     </row>
@@ -57299,7 +60537,7 @@
       <c r="L270" s="26">
         <v>44327</v>
       </c>
-      <c r="M270">
+      <c r="M270" s="48">
         <v>254</v>
       </c>
     </row>
@@ -57336,7 +60574,7 @@
       <c r="L271" s="26">
         <v>44234</v>
       </c>
-      <c r="M271">
+      <c r="M271" s="48">
         <v>252</v>
       </c>
     </row>
@@ -57373,7 +60611,7 @@
       <c r="L272" s="26">
         <v>44312</v>
       </c>
-      <c r="M272">
+      <c r="M272" s="48">
         <v>249</v>
       </c>
     </row>
@@ -57410,7 +60648,7 @@
       <c r="L273" s="26">
         <v>44248</v>
       </c>
-      <c r="M273">
+      <c r="M273" s="48">
         <v>248</v>
       </c>
     </row>
@@ -57447,7 +60685,7 @@
       <c r="L274" s="26">
         <v>44449</v>
       </c>
-      <c r="M274">
+      <c r="M274" s="48">
         <v>247</v>
       </c>
     </row>
@@ -57484,7 +60722,7 @@
       <c r="L275" s="26">
         <v>44313</v>
       </c>
-      <c r="M275">
+      <c r="M275" s="48">
         <v>247</v>
       </c>
     </row>
@@ -57521,7 +60759,7 @@
       <c r="L276" s="26">
         <v>44423</v>
       </c>
-      <c r="M276">
+      <c r="M276" s="48">
         <v>244</v>
       </c>
     </row>
@@ -57558,7 +60796,7 @@
       <c r="L277" s="26">
         <v>44321</v>
       </c>
-      <c r="M277">
+      <c r="M277" s="48">
         <v>243</v>
       </c>
     </row>
@@ -57595,7 +60833,7 @@
       <c r="L278" s="26">
         <v>44279</v>
       </c>
-      <c r="M278">
+      <c r="M278" s="48">
         <v>242</v>
       </c>
     </row>
@@ -57632,7 +60870,7 @@
       <c r="L279" s="26">
         <v>44200</v>
       </c>
-      <c r="M279">
+      <c r="M279" s="48">
         <v>242</v>
       </c>
     </row>
@@ -57669,7 +60907,7 @@
       <c r="L280" s="26">
         <v>44285</v>
       </c>
-      <c r="M280">
+      <c r="M280" s="48">
         <v>241</v>
       </c>
     </row>
@@ -57706,7 +60944,7 @@
       <c r="L281" s="26">
         <v>44239</v>
       </c>
-      <c r="M281">
+      <c r="M281" s="48">
         <v>238</v>
       </c>
     </row>
@@ -57743,7 +60981,7 @@
       <c r="L282" s="26">
         <v>44389</v>
       </c>
-      <c r="M282">
+      <c r="M282" s="48">
         <v>237</v>
       </c>
     </row>
@@ -57780,7 +61018,7 @@
       <c r="L283" s="26">
         <v>44223</v>
       </c>
-      <c r="M283">
+      <c r="M283" s="48">
         <v>237</v>
       </c>
     </row>
@@ -57817,7 +61055,7 @@
       <c r="L284" s="26">
         <v>44268</v>
       </c>
-      <c r="M284">
+      <c r="M284" s="48">
         <v>232</v>
       </c>
     </row>
@@ -57854,7 +61092,7 @@
       <c r="L285" s="26">
         <v>44482</v>
       </c>
-      <c r="M285">
+      <c r="M285" s="48">
         <v>231</v>
       </c>
     </row>
@@ -57891,7 +61129,7 @@
       <c r="L286" s="26">
         <v>44494</v>
       </c>
-      <c r="M286">
+      <c r="M286" s="48">
         <v>230</v>
       </c>
     </row>
@@ -57928,7 +61166,7 @@
       <c r="L287" s="26">
         <v>44297</v>
       </c>
-      <c r="M287">
+      <c r="M287" s="48">
         <v>230</v>
       </c>
     </row>
@@ -57965,7 +61203,7 @@
       <c r="L288" s="26">
         <v>44408</v>
       </c>
-      <c r="M288">
+      <c r="M288" s="48">
         <v>229</v>
       </c>
     </row>
@@ -58002,7 +61240,7 @@
       <c r="L289" s="26">
         <v>44417</v>
       </c>
-      <c r="M289">
+      <c r="M289" s="48">
         <v>227</v>
       </c>
     </row>
@@ -58039,7 +61277,7 @@
       <c r="L290" s="26">
         <v>44318</v>
       </c>
-      <c r="M290">
+      <c r="M290" s="48">
         <v>227</v>
       </c>
     </row>
@@ -58076,7 +61314,7 @@
       <c r="L291" s="26">
         <v>44523</v>
       </c>
-      <c r="M291">
+      <c r="M291" s="48">
         <v>226</v>
       </c>
     </row>
@@ -58113,7 +61351,7 @@
       <c r="L292" s="26">
         <v>44533</v>
       </c>
-      <c r="M292">
+      <c r="M292" s="48">
         <v>226</v>
       </c>
     </row>
@@ -58150,7 +61388,7 @@
       <c r="L293" s="26">
         <v>44374</v>
       </c>
-      <c r="M293">
+      <c r="M293" s="48">
         <v>225</v>
       </c>
     </row>
@@ -58187,7 +61425,7 @@
       <c r="L294" s="26">
         <v>44222</v>
       </c>
-      <c r="M294">
+      <c r="M294" s="48">
         <v>224</v>
       </c>
     </row>
@@ -58224,7 +61462,7 @@
       <c r="L295" s="26">
         <v>44393</v>
       </c>
-      <c r="M295">
+      <c r="M295" s="48">
         <v>224</v>
       </c>
     </row>
@@ -58261,7 +61499,7 @@
       <c r="L296" s="26">
         <v>44490</v>
       </c>
-      <c r="M296">
+      <c r="M296" s="48">
         <v>219</v>
       </c>
     </row>
@@ -58298,7 +61536,7 @@
       <c r="L297" s="26">
         <v>44339</v>
       </c>
-      <c r="M297">
+      <c r="M297" s="48">
         <v>218</v>
       </c>
     </row>
@@ -58335,7 +61573,7 @@
       <c r="L298" s="26">
         <v>44351</v>
       </c>
-      <c r="M298">
+      <c r="M298" s="48">
         <v>218</v>
       </c>
     </row>
@@ -58372,7 +61610,7 @@
       <c r="L299" s="26">
         <v>44293</v>
       </c>
-      <c r="M299">
+      <c r="M299" s="48">
         <v>217</v>
       </c>
     </row>
@@ -58409,7 +61647,7 @@
       <c r="L300" s="26">
         <v>44320</v>
       </c>
-      <c r="M300">
+      <c r="M300" s="48">
         <v>215</v>
       </c>
     </row>
@@ -58446,7 +61684,7 @@
       <c r="L301" s="26">
         <v>44211</v>
       </c>
-      <c r="M301">
+      <c r="M301" s="48">
         <v>213</v>
       </c>
     </row>
@@ -58483,7 +61721,7 @@
       <c r="L302" s="26">
         <v>44534</v>
       </c>
-      <c r="M302">
+      <c r="M302" s="48">
         <v>213</v>
       </c>
     </row>
@@ -58520,7 +61758,7 @@
       <c r="L303" s="26">
         <v>44253</v>
       </c>
-      <c r="M303">
+      <c r="M303" s="48">
         <v>212</v>
       </c>
     </row>
@@ -58557,7 +61795,7 @@
       <c r="L304" s="26">
         <v>44286</v>
       </c>
-      <c r="M304">
+      <c r="M304" s="48">
         <v>211</v>
       </c>
     </row>
@@ -58594,7 +61832,7 @@
       <c r="L305" s="26">
         <v>44420</v>
       </c>
-      <c r="M305">
+      <c r="M305" s="48">
         <v>211</v>
       </c>
     </row>
@@ -58631,7 +61869,7 @@
       <c r="L306" s="26">
         <v>44550</v>
       </c>
-      <c r="M306">
+      <c r="M306" s="48">
         <v>210</v>
       </c>
     </row>
@@ -58668,7 +61906,7 @@
       <c r="L307" s="26">
         <v>44382</v>
       </c>
-      <c r="M307">
+      <c r="M307" s="48">
         <v>209</v>
       </c>
     </row>
@@ -58705,7 +61943,7 @@
       <c r="L308" s="26">
         <v>44240</v>
       </c>
-      <c r="M308">
+      <c r="M308" s="48">
         <v>209</v>
       </c>
     </row>
@@ -58742,7 +61980,7 @@
       <c r="L309" s="26">
         <v>44544</v>
       </c>
-      <c r="M309">
+      <c r="M309" s="48">
         <v>208</v>
       </c>
     </row>
@@ -58779,7 +62017,7 @@
       <c r="L310" s="26">
         <v>44428</v>
       </c>
-      <c r="M310">
+      <c r="M310" s="48">
         <v>205</v>
       </c>
     </row>
@@ -58816,7 +62054,7 @@
       <c r="L311" s="26">
         <v>44440</v>
       </c>
-      <c r="M311">
+      <c r="M311" s="48">
         <v>205</v>
       </c>
     </row>
@@ -58853,7 +62091,7 @@
       <c r="L312" s="26">
         <v>44280</v>
       </c>
-      <c r="M312">
+      <c r="M312" s="48">
         <v>203</v>
       </c>
     </row>
@@ -58890,7 +62128,7 @@
       <c r="L313" s="26">
         <v>44396</v>
       </c>
-      <c r="M313">
+      <c r="M313" s="48">
         <v>200</v>
       </c>
     </row>
@@ -58927,7 +62165,7 @@
       <c r="L314" s="26">
         <v>44508</v>
       </c>
-      <c r="M314">
+      <c r="M314" s="48">
         <v>198</v>
       </c>
     </row>
@@ -58964,7 +62202,7 @@
       <c r="L315" s="26">
         <v>44358</v>
       </c>
-      <c r="M315">
+      <c r="M315" s="48">
         <v>197</v>
       </c>
     </row>
@@ -59001,7 +62239,7 @@
       <c r="L316" s="26">
         <v>44413</v>
       </c>
-      <c r="M316">
+      <c r="M316" s="48">
         <v>195</v>
       </c>
     </row>
@@ -59038,7 +62276,7 @@
       <c r="L317" s="26">
         <v>44499</v>
       </c>
-      <c r="M317">
+      <c r="M317" s="48">
         <v>195</v>
       </c>
     </row>
@@ -59075,7 +62313,7 @@
       <c r="L318" s="26">
         <v>44480</v>
       </c>
-      <c r="M318">
+      <c r="M318" s="48">
         <v>194</v>
       </c>
     </row>
@@ -59112,7 +62350,7 @@
       <c r="L319" s="26">
         <v>44343</v>
       </c>
-      <c r="M319">
+      <c r="M319" s="48">
         <v>194</v>
       </c>
     </row>
@@ -59149,7 +62387,7 @@
       <c r="L320" s="26">
         <v>44301</v>
       </c>
-      <c r="M320">
+      <c r="M320" s="48">
         <v>193</v>
       </c>
     </row>
@@ -59186,7 +62424,7 @@
       <c r="L321" s="26">
         <v>44284</v>
       </c>
-      <c r="M321">
+      <c r="M321" s="48">
         <v>192</v>
       </c>
     </row>
@@ -59223,7 +62461,7 @@
       <c r="L322" s="26">
         <v>44385</v>
       </c>
-      <c r="M322">
+      <c r="M322" s="48">
         <v>192</v>
       </c>
     </row>
@@ -59260,7 +62498,7 @@
       <c r="L323" s="26">
         <v>44300</v>
       </c>
-      <c r="M323">
+      <c r="M323" s="48">
         <v>189</v>
       </c>
     </row>
@@ -59297,7 +62535,7 @@
       <c r="L324" s="26">
         <v>44435</v>
       </c>
-      <c r="M324">
+      <c r="M324" s="48">
         <v>188</v>
       </c>
     </row>
@@ -59334,7 +62572,7 @@
       <c r="L325" s="26">
         <v>44330</v>
       </c>
-      <c r="M325">
+      <c r="M325" s="48">
         <v>187</v>
       </c>
     </row>
@@ -59371,7 +62609,7 @@
       <c r="L326" s="26">
         <v>44209</v>
       </c>
-      <c r="M326">
+      <c r="M326" s="48">
         <v>185</v>
       </c>
     </row>
@@ -59408,7 +62646,7 @@
       <c r="L327" s="26">
         <v>44398</v>
       </c>
-      <c r="M327">
+      <c r="M327" s="48">
         <v>185</v>
       </c>
     </row>
@@ -59445,7 +62683,7 @@
       <c r="L328" s="26">
         <v>44528</v>
       </c>
-      <c r="M328">
+      <c r="M328" s="48">
         <v>183</v>
       </c>
     </row>
@@ -59482,7 +62720,7 @@
       <c r="L329" s="26">
         <v>44371</v>
       </c>
-      <c r="M329">
+      <c r="M329" s="48">
         <v>183</v>
       </c>
     </row>
@@ -59519,7 +62757,7 @@
       <c r="L330" s="26">
         <v>44452</v>
       </c>
-      <c r="M330">
+      <c r="M330" s="48">
         <v>181</v>
       </c>
     </row>
@@ -59556,7 +62794,7 @@
       <c r="L331" s="26">
         <v>44476</v>
       </c>
-      <c r="M331">
+      <c r="M331" s="48">
         <v>176</v>
       </c>
     </row>
@@ -59593,7 +62831,7 @@
       <c r="L332" s="26">
         <v>44513</v>
       </c>
-      <c r="M332">
+      <c r="M332" s="48">
         <v>175</v>
       </c>
     </row>
@@ -59630,7 +62868,7 @@
       <c r="L333" s="26">
         <v>44266</v>
       </c>
-      <c r="M333">
+      <c r="M333" s="48">
         <v>174</v>
       </c>
     </row>
@@ -59667,7 +62905,7 @@
       <c r="L334" s="26">
         <v>44309</v>
       </c>
-      <c r="M334">
+      <c r="M334" s="48">
         <v>174</v>
       </c>
     </row>
@@ -59704,7 +62942,7 @@
       <c r="L335" s="26">
         <v>44232</v>
       </c>
-      <c r="M335">
+      <c r="M335" s="48">
         <v>173</v>
       </c>
     </row>
@@ -59741,7 +62979,7 @@
       <c r="L336" s="26">
         <v>44332</v>
       </c>
-      <c r="M336">
+      <c r="M336" s="48">
         <v>172</v>
       </c>
     </row>
@@ -59778,7 +63016,7 @@
       <c r="L337" s="26">
         <v>44484</v>
       </c>
-      <c r="M337">
+      <c r="M337" s="48">
         <v>171</v>
       </c>
     </row>
@@ -59815,7 +63053,7 @@
       <c r="L338" s="26">
         <v>44502</v>
       </c>
-      <c r="M338">
+      <c r="M338" s="48">
         <v>171</v>
       </c>
     </row>
@@ -59852,7 +63090,7 @@
       <c r="L339" s="26">
         <v>44376</v>
       </c>
-      <c r="M339">
+      <c r="M339" s="48">
         <v>171</v>
       </c>
     </row>
@@ -59889,7 +63127,7 @@
       <c r="L340" s="26">
         <v>44359</v>
       </c>
-      <c r="M340">
+      <c r="M340" s="48">
         <v>170</v>
       </c>
     </row>
@@ -59926,7 +63164,7 @@
       <c r="L341" s="26">
         <v>44226</v>
       </c>
-      <c r="M341">
+      <c r="M341" s="48">
         <v>167</v>
       </c>
     </row>
@@ -59963,7 +63201,7 @@
       <c r="L342" s="26">
         <v>44424</v>
       </c>
-      <c r="M342">
+      <c r="M342" s="48">
         <v>164</v>
       </c>
     </row>
@@ -60000,7 +63238,7 @@
       <c r="L343" s="26">
         <v>44354</v>
       </c>
-      <c r="M343">
+      <c r="M343" s="48">
         <v>163</v>
       </c>
     </row>
@@ -60037,7 +63275,7 @@
       <c r="L344" s="26">
         <v>44275</v>
       </c>
-      <c r="M344">
+      <c r="M344" s="48">
         <v>163</v>
       </c>
     </row>
@@ -60074,7 +63312,7 @@
       <c r="L345" s="26">
         <v>44227</v>
       </c>
-      <c r="M345">
+      <c r="M345" s="48">
         <v>160</v>
       </c>
     </row>
@@ -60111,7 +63349,7 @@
       <c r="L346" s="26">
         <v>44233</v>
       </c>
-      <c r="M346">
+      <c r="M346" s="48">
         <v>160</v>
       </c>
     </row>
@@ -60148,7 +63386,7 @@
       <c r="L347" s="26">
         <v>44388</v>
       </c>
-      <c r="M347">
+      <c r="M347" s="48">
         <v>159</v>
       </c>
     </row>
@@ -60185,7 +63423,7 @@
       <c r="L348" s="26">
         <v>44288</v>
       </c>
-      <c r="M348">
+      <c r="M348" s="48">
         <v>158</v>
       </c>
     </row>
@@ -60222,7 +63460,7 @@
       <c r="L349" s="26">
         <v>44270</v>
       </c>
-      <c r="M349">
+      <c r="M349" s="48">
         <v>158</v>
       </c>
     </row>
@@ -60259,7 +63497,7 @@
       <c r="L350" s="26">
         <v>44361</v>
       </c>
-      <c r="M350">
+      <c r="M350" s="48">
         <v>157</v>
       </c>
     </row>
@@ -60296,7 +63534,7 @@
       <c r="L351" s="26">
         <v>44541</v>
       </c>
-      <c r="M351">
+      <c r="M351" s="48">
         <v>157</v>
       </c>
     </row>
@@ -60333,7 +63571,7 @@
       <c r="L352" s="26">
         <v>44387</v>
       </c>
-      <c r="M352">
+      <c r="M352" s="48">
         <v>155</v>
       </c>
     </row>
@@ -60370,7 +63608,7 @@
       <c r="L353" s="26">
         <v>44379</v>
       </c>
-      <c r="M353">
+      <c r="M353" s="48">
         <v>155</v>
       </c>
     </row>
@@ -60407,7 +63645,7 @@
       <c r="L354" s="26">
         <v>44262</v>
       </c>
-      <c r="M354">
+      <c r="M354" s="48">
         <v>154</v>
       </c>
     </row>
@@ -60444,7 +63682,7 @@
       <c r="L355" s="26">
         <v>44492</v>
       </c>
-      <c r="M355">
+      <c r="M355" s="48">
         <v>152</v>
       </c>
     </row>
@@ -60481,7 +63719,7 @@
       <c r="L356" s="26">
         <v>44369</v>
       </c>
-      <c r="M356">
+      <c r="M356" s="48">
         <v>151</v>
       </c>
     </row>
@@ -60518,7 +63756,7 @@
       <c r="L357" s="26">
         <v>44247</v>
       </c>
-      <c r="M357">
+      <c r="M357" s="48">
         <v>150</v>
       </c>
     </row>
@@ -60555,7 +63793,7 @@
       <c r="L358" s="26">
         <v>44365</v>
       </c>
-      <c r="M358">
+      <c r="M358" s="48">
         <v>149</v>
       </c>
     </row>
@@ -60592,7 +63830,7 @@
       <c r="L359" s="26">
         <v>44250</v>
       </c>
-      <c r="M359">
+      <c r="M359" s="48">
         <v>149</v>
       </c>
     </row>
@@ -60629,7 +63867,7 @@
       <c r="L360" s="26">
         <v>44392</v>
       </c>
-      <c r="M360">
+      <c r="M360" s="48">
         <v>148</v>
       </c>
     </row>
@@ -60666,7 +63904,7 @@
       <c r="L361" s="26">
         <v>44462</v>
       </c>
-      <c r="M361">
+      <c r="M361" s="48">
         <v>147</v>
       </c>
     </row>
@@ -60703,7 +63941,7 @@
       <c r="L362" s="26">
         <v>44236</v>
       </c>
-      <c r="M362">
+      <c r="M362" s="48">
         <v>147</v>
       </c>
     </row>
@@ -60740,7 +63978,7 @@
       <c r="L363" s="26">
         <v>44532</v>
       </c>
-      <c r="M363">
+      <c r="M363" s="48">
         <v>144</v>
       </c>
     </row>
@@ -60777,7 +64015,7 @@
       <c r="L364" s="26">
         <v>44325</v>
       </c>
-      <c r="M364">
+      <c r="M364" s="48">
         <v>144</v>
       </c>
     </row>
@@ -60814,7 +64052,7 @@
       <c r="L365" s="26">
         <v>44289</v>
       </c>
-      <c r="M365">
+      <c r="M365" s="48">
         <v>142</v>
       </c>
     </row>
@@ -60851,7 +64089,7 @@
       <c r="L366" s="26">
         <v>44448</v>
       </c>
-      <c r="M366">
+      <c r="M366" s="48">
         <v>139</v>
       </c>
     </row>
@@ -60859,7 +64097,7 @@
       <c r="L367" s="26">
         <v>44483</v>
       </c>
-      <c r="M367">
+      <c r="M367" s="48">
         <v>138</v>
       </c>
     </row>
@@ -60867,7 +64105,7 @@
       <c r="L368" s="26">
         <v>44390</v>
       </c>
-      <c r="M368">
+      <c r="M368" s="48">
         <v>138</v>
       </c>
     </row>
@@ -60875,7 +64113,7 @@
       <c r="L369" s="26">
         <v>44457</v>
       </c>
-      <c r="M369">
+      <c r="M369" s="48">
         <v>137</v>
       </c>
     </row>
@@ -60883,7 +64121,7 @@
       <c r="L370" s="26">
         <v>44395</v>
       </c>
-      <c r="M370">
+      <c r="M370" s="48">
         <v>135</v>
       </c>
     </row>
@@ -60891,7 +64129,7 @@
       <c r="L371" s="26">
         <v>44507</v>
       </c>
-      <c r="M371">
+      <c r="M371" s="48">
         <v>131</v>
       </c>
     </row>
@@ -60899,7 +64137,7 @@
       <c r="L372" s="26">
         <v>44446</v>
       </c>
-      <c r="M372">
+      <c r="M372" s="48">
         <v>131</v>
       </c>
     </row>
@@ -60907,7 +64145,7 @@
       <c r="L373" s="26">
         <v>44409</v>
       </c>
-      <c r="M373">
+      <c r="M373" s="48">
         <v>130</v>
       </c>
     </row>
@@ -60915,7 +64153,7 @@
       <c r="L374" s="26">
         <v>44315</v>
       </c>
-      <c r="M374">
+      <c r="M374" s="48">
         <v>128</v>
       </c>
     </row>
@@ -60923,7 +64161,7 @@
       <c r="L375" s="26">
         <v>44228</v>
       </c>
-      <c r="M375">
+      <c r="M375" s="48">
         <v>128</v>
       </c>
     </row>
@@ -60931,7 +64169,7 @@
       <c r="L376" s="26">
         <v>44391</v>
       </c>
-      <c r="M376">
+      <c r="M376" s="48">
         <v>127</v>
       </c>
     </row>
@@ -60939,7 +64177,7 @@
       <c r="L377" s="26">
         <v>44242</v>
       </c>
-      <c r="M377">
+      <c r="M377" s="48">
         <v>127</v>
       </c>
     </row>
@@ -60947,7 +64185,7 @@
       <c r="L378" s="26">
         <v>44308</v>
       </c>
-      <c r="M378">
+      <c r="M378" s="48">
         <v>125</v>
       </c>
     </row>
@@ -60955,7 +64193,7 @@
       <c r="L379" s="26">
         <v>44225</v>
       </c>
-      <c r="M379">
+      <c r="M379" s="48">
         <v>124</v>
       </c>
     </row>
@@ -60963,7 +64201,7 @@
       <c r="L380" s="26">
         <v>44294</v>
       </c>
-      <c r="M380">
+      <c r="M380" s="48">
         <v>119</v>
       </c>
     </row>
@@ -60971,7 +64209,7 @@
       <c r="L381" s="26">
         <v>44230</v>
       </c>
-      <c r="M381">
+      <c r="M381" s="48">
         <v>118</v>
       </c>
     </row>
@@ -60979,7 +64217,7 @@
       <c r="L382" s="26">
         <v>44437</v>
       </c>
-      <c r="M382">
+      <c r="M382" s="48">
         <v>117</v>
       </c>
     </row>
@@ -60987,7 +64225,7 @@
       <c r="L383" s="26">
         <v>44463</v>
       </c>
-      <c r="M383">
+      <c r="M383" s="48">
         <v>117</v>
       </c>
     </row>
@@ -60995,7 +64233,7 @@
       <c r="L384" s="26">
         <v>44256</v>
       </c>
-      <c r="M384">
+      <c r="M384" s="48">
         <v>113</v>
       </c>
     </row>
@@ -61003,7 +64241,7 @@
       <c r="L385" s="26">
         <v>44444</v>
       </c>
-      <c r="M385">
+      <c r="M385" s="48">
         <v>112</v>
       </c>
     </row>
@@ -61011,7 +64249,7 @@
       <c r="L386" s="26">
         <v>44531</v>
       </c>
-      <c r="M386">
+      <c r="M386" s="48">
         <v>112</v>
       </c>
     </row>
@@ -61019,7 +64257,7 @@
       <c r="L387" s="26">
         <v>44394</v>
       </c>
-      <c r="M387">
+      <c r="M387" s="48">
         <v>112</v>
       </c>
     </row>
@@ -61027,7 +64265,7 @@
       <c r="L388" s="26">
         <v>44302</v>
       </c>
-      <c r="M388">
+      <c r="M388" s="48">
         <v>112</v>
       </c>
     </row>
@@ -61035,7 +64273,7 @@
       <c r="L389" s="26">
         <v>44411</v>
       </c>
-      <c r="M389">
+      <c r="M389" s="48">
         <v>110</v>
       </c>
     </row>
@@ -61043,7 +64281,7 @@
       <c r="L390" s="26">
         <v>44357</v>
       </c>
-      <c r="M390">
+      <c r="M390" s="48">
         <v>110</v>
       </c>
     </row>
@@ -61051,7 +64289,7 @@
       <c r="L391" s="26">
         <v>44314</v>
       </c>
-      <c r="M391">
+      <c r="M391" s="48">
         <v>107</v>
       </c>
     </row>
@@ -61059,7 +64297,7 @@
       <c r="L392" s="26">
         <v>44324</v>
       </c>
-      <c r="M392">
+      <c r="M392" s="48">
         <v>106</v>
       </c>
     </row>
@@ -61067,7 +64305,7 @@
       <c r="L393" s="26">
         <v>44505</v>
       </c>
-      <c r="M393">
+      <c r="M393" s="48">
         <v>105</v>
       </c>
     </row>
@@ -61075,7 +64313,7 @@
       <c r="L394" s="26">
         <v>44399</v>
       </c>
-      <c r="M394">
+      <c r="M394" s="48">
         <v>103</v>
       </c>
     </row>
@@ -61083,7 +64321,7 @@
       <c r="L395" s="26">
         <v>44218</v>
       </c>
-      <c r="M395">
+      <c r="M395" s="48">
         <v>102</v>
       </c>
     </row>
@@ -61091,7 +64329,7 @@
       <c r="L396" s="26">
         <v>44558</v>
       </c>
-      <c r="M396">
+      <c r="M396" s="48">
         <v>101</v>
       </c>
     </row>
@@ -61099,12 +64337,13 @@
       <c r="L397" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M397">
+      <c r="M397" s="48">
         <v>111499</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -61115,18 +64354,19 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.6640625" style="27"/>
+    <col min="3" max="3" width="18.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" style="27"/>
     <col min="11" max="11" width="14.6640625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.109375" style="27" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" style="27" bestFit="1" customWidth="1"/>
@@ -61179,14 +64419,17 @@
       <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="13.2">
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="40" t="s">
         <v>58</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
@@ -61199,6 +64442,9 @@
       <c r="E9" s="39">
         <v>65577.113636363632</v>
       </c>
+      <c r="F9" s="39">
+        <v>4488609</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="C10" s="32" t="s">
@@ -61210,6 +64456,9 @@
       <c r="E10" s="31">
         <v>74886.238095238092</v>
       </c>
+      <c r="F10" s="31">
+        <v>1158519</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="C11" s="32" t="s">
@@ -61221,6 +64470,9 @@
       <c r="E11" s="31">
         <v>61535</v>
       </c>
+      <c r="F11" s="31">
+        <v>1373666</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="C12" s="32" t="s">
@@ -61232,6 +64484,9 @@
       <c r="E12" s="31">
         <v>61673.73684210526</v>
       </c>
+      <c r="F12" s="31">
+        <v>942656</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="C13" s="32" t="s">
@@ -61243,6 +64498,9 @@
       <c r="E13" s="31">
         <v>64563.916666666664</v>
       </c>
+      <c r="F13" s="31">
+        <v>1013768</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="C14" s="38" t="s">
@@ -61254,6 +64512,9 @@
       <c r="E14" s="39">
         <v>64383.176470588238</v>
       </c>
+      <c r="F14" s="39">
+        <v>4649283</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="C15" s="32" t="s">
@@ -61265,6 +64526,9 @@
       <c r="E15" s="31">
         <v>69029.032258064515</v>
       </c>
+      <c r="F15" s="31">
+        <v>1527614</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="C16" s="32" t="s">
@@ -61276,8 +64540,11 @@
       <c r="E16" s="31">
         <v>55231.947368421053</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F16" s="31">
+        <v>1076536</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" customHeight="1">
       <c r="C17" s="32" t="s">
         <v>24</v>
       </c>
@@ -61287,8 +64554,11 @@
       <c r="E17" s="31">
         <v>62466.684210526313</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F17" s="31">
+        <v>1191677</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" customHeight="1">
       <c r="C18" s="32" t="s">
         <v>30</v>
       </c>
@@ -61298,8 +64568,11 @@
       <c r="E18" s="31">
         <v>68524.75</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F18" s="31">
+        <v>853456</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" customHeight="1">
       <c r="C19" s="38" t="s">
         <v>23</v>
       </c>
@@ -61309,8 +64582,11 @@
       <c r="E19" s="39">
         <v>61520.722222222219</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F19" s="39">
+        <v>4516645</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" customHeight="1">
       <c r="C20" s="32" t="s">
         <v>26</v>
       </c>
@@ -61320,8 +64596,11 @@
       <c r="E20" s="31">
         <v>66555.681818181823</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F20" s="31">
+        <v>1214113</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" customHeight="1">
       <c r="C21" s="32" t="s">
         <v>28</v>
       </c>
@@ -61331,8 +64610,11 @@
       <c r="E21" s="31">
         <v>60111.192307692305</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F21" s="31">
+        <v>1092382</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" customHeight="1">
       <c r="C22" s="32" t="s">
         <v>24</v>
       </c>
@@ -61342,8 +64624,11 @@
       <c r="E22" s="31">
         <v>58060.052631578947</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F22" s="31">
+        <v>1203066</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" customHeight="1">
       <c r="C23" s="32" t="s">
         <v>30</v>
       </c>
@@ -61353,8 +64638,11 @@
       <c r="E23" s="31">
         <v>61156.869565217392</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F23" s="31">
+        <v>1007084</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" customHeight="1">
       <c r="C24" s="38" t="s">
         <v>27</v>
       </c>
@@ -61364,8 +64652,11 @@
       <c r="E24" s="39">
         <v>60495.892156862748</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F24" s="39">
+        <v>5107574</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" customHeight="1">
       <c r="C25" s="32" t="s">
         <v>26</v>
       </c>
@@ -61375,8 +64666,11 @@
       <c r="E25" s="31">
         <v>62435.333333333336</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F25" s="31">
+        <v>1547233</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" customHeight="1">
       <c r="C26" s="32" t="s">
         <v>28</v>
       </c>
@@ -61386,8 +64680,11 @@
       <c r="E26" s="31">
         <v>59221.15789473684</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F26" s="31">
+        <v>1094065</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" customHeight="1">
       <c r="C27" s="32" t="s">
         <v>24</v>
       </c>
@@ -61397,8 +64694,11 @@
       <c r="E27" s="31">
         <v>58332.884615384617</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F27" s="31">
+        <v>1098903</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" customHeight="1">
       <c r="C28" s="32" t="s">
         <v>30</v>
       </c>
@@ -61408,8 +64708,11 @@
       <c r="E28" s="31">
         <v>61320.888888888891</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" customHeight="1">
+      <c r="F28" s="31">
+        <v>1367373</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" customHeight="1">
       <c r="C29" s="38" t="s">
         <v>32</v>
       </c>
@@ -61419,10 +64722,13 @@
       <c r="E29" s="39">
         <v>62878.909589041097</v>
       </c>
+      <c r="F29" s="39">
+        <v>18762111</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="534" priority="1">
       <formula>ISBLANK($C$8:$E$29)</formula>
     </cfRule>
   </conditionalFormatting>
